--- a/STOCK MALIBU.xlsx
+++ b/STOCK MALIBU.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="242">
   <si>
     <t>PRODUCTO ANILLOS 🍉</t>
   </si>
@@ -43,9 +43,27 @@
     <t>PRECIO VENTA</t>
   </si>
   <si>
+    <t>JOYA ESPECIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONDE SE ENCUENTRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVEEDOR </t>
+  </si>
+  <si>
     <t>ANTIESTRES SIMPLE T 10</t>
   </si>
   <si>
+    <t>siempre</t>
+  </si>
+  <si>
+    <t>tienda y bodega</t>
+  </si>
+  <si>
+    <t>nelson</t>
+  </si>
+  <si>
     <t>ANTIESTRES SIMPLE T 12</t>
   </si>
   <si>
@@ -208,6 +226,9 @@
     <t>ANILLO NUDO BRUJA GRANDE T 14</t>
   </si>
   <si>
+    <t xml:space="preserve">angélica </t>
+  </si>
+  <si>
     <t>ANILLO NUDO BRUJA GRANDE T 16</t>
   </si>
   <si>
@@ -328,12 +349,21 @@
     <t>ANILLO ARBOL DE LA VIDA SERGIO T12</t>
   </si>
   <si>
+    <t>nunca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergio </t>
+  </si>
+  <si>
     <t>ANILLO ARBOL DE LA VIDA SERGIO T14</t>
   </si>
   <si>
     <t>ANILLO ARBOL DE LA VIDA SERGIO T16</t>
   </si>
   <si>
+    <t>Sergio</t>
+  </si>
+  <si>
     <t>ANILLO ARBOL DE LA VIDA SERGIO T18</t>
   </si>
   <si>
@@ -346,6 +376,9 @@
     <t>ANILLO ESPIGA DELGADO T 12</t>
   </si>
   <si>
+    <t xml:space="preserve">siempre </t>
+  </si>
+  <si>
     <t>ANILLO ESPIGA DELGADO T 14</t>
   </si>
   <si>
@@ -466,9 +499,15 @@
     <t>GIRASOL  TALLO</t>
   </si>
   <si>
+    <t>creador</t>
+  </si>
+  <si>
     <t xml:space="preserve">NUDO BRUJA AMATISTA </t>
   </si>
   <si>
+    <t xml:space="preserve">nelson </t>
+  </si>
+  <si>
     <t>NUDO BRUJA ROSA CUARZO</t>
   </si>
   <si>
@@ -493,6 +532,9 @@
     <t>NUDO BRUJA CREADORA OSCURO</t>
   </si>
   <si>
+    <t xml:space="preserve">creador </t>
+  </si>
+  <si>
     <t xml:space="preserve">NUDO BRUJA </t>
   </si>
   <si>
@@ -502,6 +544,9 @@
     <t>LlAMADOR 1</t>
   </si>
   <si>
+    <t>galeria</t>
+  </si>
+  <si>
     <t>LLAMADOR 2</t>
   </si>
   <si>
@@ -511,9 +556,15 @@
     <t>LlAMADOR 4</t>
   </si>
   <si>
+    <t xml:space="preserve">nunca </t>
+  </si>
+  <si>
     <t>GATITA LUNA</t>
   </si>
   <si>
+    <t xml:space="preserve">siembre </t>
+  </si>
+  <si>
     <t>punto luz gota azul</t>
   </si>
   <si>
@@ -529,6 +580,9 @@
     <t xml:space="preserve">COLIBRI </t>
   </si>
   <si>
+    <t>Nelson</t>
+  </si>
+  <si>
     <t>delfín micro circon</t>
   </si>
   <si>
@@ -562,6 +616,12 @@
     <t xml:space="preserve">Pegados Salchicha </t>
   </si>
   <si>
+    <t xml:space="preserve">siempre  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bodega y Tienda </t>
+  </si>
+  <si>
     <t>Perla Pistilo 1</t>
   </si>
   <si>
@@ -616,6 +676,9 @@
     <t>aros tope minnie</t>
   </si>
   <si>
+    <t>sergio</t>
+  </si>
+  <si>
     <t>aros tope perla rio</t>
   </si>
   <si>
@@ -629,6 +692,9 @@
   </si>
   <si>
     <t>Aros colgantes largo estrella estrella estrella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tienda y bodega </t>
   </si>
   <si>
     <t>Aros Colgantes largo estrella luna estrella</t>
@@ -718,7 +784,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -735,6 +801,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE69138"/>
         <bgColor rgb="FFE69138"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
@@ -775,6 +847,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF3D85C6"/>
+        <bgColor rgb="FF3D85C6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF00FF"/>
         <bgColor rgb="FFFF00FF"/>
       </patternFill>
@@ -786,7 +864,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -799,6 +877,9 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -808,11 +889,14 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -821,20 +905,26 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1072,6 +1162,9 @@
     <col customWidth="1" min="2" max="2" width="17.88"/>
     <col customWidth="1" min="3" max="3" width="18.63"/>
     <col customWidth="1" min="4" max="4" width="18.5"/>
+    <col customWidth="1" min="5" max="5" width="16.75"/>
+    <col customWidth="1" min="6" max="6" width="22.75"/>
+    <col customWidth="1" min="7" max="7" width="19.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1087,1688 +1180,2912 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6">
         <v>4.0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>3500.0</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>11000.0</v>
       </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6">
         <v>8.0</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>3500.0</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>11000.0</v>
       </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6">
         <v>7.0</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>3500.0</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>11000.0</v>
       </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6">
         <v>5.0</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>3500.0</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>11000.0</v>
       </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6">
         <v>4.0</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>3500.0</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>11000.0</v>
       </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6">
         <v>5.0</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>3500.0</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>11000.0</v>
       </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6">
         <v>10.0</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>4500.0</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>12000.0</v>
       </c>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="6">
         <v>7.0</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <v>4500.0</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="7">
         <v>12000.0</v>
       </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6">
         <v>3.0</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>4500.0</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7">
         <v>12000.0</v>
       </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="6">
         <v>4.0</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7">
         <v>4500.0</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="7">
         <v>12000.0</v>
       </c>
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="7">
         <v>4500.0</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="7">
         <v>12000.0</v>
       </c>
+      <c r="E12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="5">
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="6">
         <v>12.0</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <v>4500.0</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="7">
         <v>12000.0</v>
       </c>
+      <c r="E13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="5">
+      <c r="A14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="6">
         <v>3.0</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="7">
         <v>4500.0</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="7">
         <v>12000.0</v>
       </c>
+      <c r="E14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="A15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="6">
         <v>3.0</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="7">
         <v>4500.0</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="7">
         <v>12000.0</v>
       </c>
+      <c r="E15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="A16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="6">
         <v>3.0</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="7">
         <v>4500.0</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="7">
         <v>12000.0</v>
       </c>
+      <c r="E16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="A17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="7">
         <v>4500.0</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="7">
         <v>12000.0</v>
       </c>
+      <c r="E17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="5">
+      <c r="A18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="6">
         <v>8.0</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="7">
         <v>4500.0</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="7">
         <v>12000.0</v>
       </c>
+      <c r="E18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="5">
+      <c r="A19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="6">
         <v>5.0</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="7">
         <v>4500.0</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="7">
         <v>12000.0</v>
       </c>
+      <c r="E19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="5">
+      <c r="A20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="6">
         <v>5.0</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="7">
         <v>4500.0</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="7">
         <v>12000.0</v>
       </c>
+      <c r="E20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="5">
+      <c r="A21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="6">
         <v>4.0</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="7">
         <v>4500.0</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="7">
         <v>12000.0</v>
       </c>
+      <c r="E21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="5">
+      <c r="A22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="6">
         <v>3.0</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="7">
         <v>4500.0</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="7">
         <v>12000.0</v>
       </c>
+      <c r="E22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="5">
+      <c r="A23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="6">
         <v>2.0</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="7">
         <v>4500.0</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="7">
         <v>12000.0</v>
       </c>
+      <c r="E23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="5">
+      <c r="A24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="6">
         <v>0.0</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="7">
         <v>4500.0</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="7">
         <v>12000.0</v>
       </c>
+      <c r="E24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="5">
+      <c r="A25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="6">
         <v>4.0</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="7">
         <v>4500.0</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="7">
         <v>12000.0</v>
       </c>
+      <c r="E25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="5">
+      <c r="A26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="6">
         <v>4.0</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="7">
         <v>6000.0</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="7">
         <v>14000.0</v>
       </c>
+      <c r="E26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="5">
+      <c r="A27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="6">
         <v>3.0</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="7">
         <v>6000.0</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="7">
         <v>14000.0</v>
       </c>
+      <c r="E27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="5">
+      <c r="A28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="6">
         <v>3.0</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="7">
         <v>6000.0</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="7">
         <v>14000.0</v>
       </c>
+      <c r="E28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="5">
+      <c r="A29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="6">
         <v>4.0</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="7">
         <v>6000.0</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="7">
         <v>14000.0</v>
       </c>
+      <c r="E29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="5">
+      <c r="A30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="6">
         <v>1.0</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="7">
         <v>6000.0</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="7">
         <v>14000.0</v>
       </c>
+      <c r="E30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="5">
+      <c r="A31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="6">
         <v>2.0</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="7">
         <v>6000.0</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="7">
         <v>14000.0</v>
       </c>
+      <c r="E31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="5">
+      <c r="A32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="6">
         <v>4.0</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="7">
         <v>6000.0</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="7">
         <v>14000.0</v>
       </c>
+      <c r="E32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="5">
+      <c r="A33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="6">
         <v>7.0</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="7">
         <v>6000.0</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="7">
         <v>14000.0</v>
       </c>
+      <c r="E33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="5">
+      <c r="A34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="6">
         <v>3.0</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="7">
         <v>6000.0</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="7">
         <v>14000.0</v>
       </c>
+      <c r="E34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="5">
+      <c r="A35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="6">
         <v>3.0</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="7">
         <v>6000.0</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="7">
         <v>14000.0</v>
       </c>
+      <c r="E35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="5">
+      <c r="A36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="6">
         <v>2.0</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="7">
         <v>6000.0</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="7">
         <v>14000.0</v>
       </c>
+      <c r="E36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="5">
+      <c r="A37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="6">
         <v>2.0</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="7">
         <v>6000.0</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="7">
         <v>14000.0</v>
       </c>
+      <c r="E37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="5">
+      <c r="A38" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="6">
         <v>5.0</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="7">
         <v>6000.0</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="7">
         <v>14000.0</v>
       </c>
+      <c r="E38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="5">
+      <c r="A39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="6">
         <v>2.0</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="7">
         <v>6000.0</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="7">
         <v>14000.0</v>
       </c>
+      <c r="E39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="5">
+      <c r="A40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="6">
         <v>4.0</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="7">
         <v>6000.0</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="7">
         <v>14000.0</v>
       </c>
+      <c r="E40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="5">
+      <c r="A41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="6">
         <v>3.0</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="7">
         <v>6000.0</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="7">
         <v>14000.0</v>
       </c>
+      <c r="E41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="5">
+      <c r="A42" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="6">
         <v>3.0</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="7">
         <v>6000.0</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="7">
         <v>14000.0</v>
       </c>
+      <c r="E42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="5">
+      <c r="A43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="6">
         <v>6.0</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="7">
         <v>6000.0</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="7">
         <v>14000.0</v>
       </c>
+      <c r="E43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="5">
+      <c r="A44" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="6">
         <v>2.0</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="7">
         <v>6000.0</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="7">
         <v>14000.0</v>
       </c>
+      <c r="E44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="5">
+      <c r="A45" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="6">
         <v>2.0</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="7">
         <v>6500.0</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="7">
         <v>13500.0</v>
       </c>
+      <c r="E45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="5">
+      <c r="A46" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="6">
         <v>4.0</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="7">
         <v>9500.0</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="5">
+      <c r="A47" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="6">
         <v>5.0</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="7">
         <v>9500.0</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="5">
+      <c r="A48" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="6">
         <v>4.0</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="7">
         <v>9500.0</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="5">
+      <c r="A49" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="6">
         <v>2.0</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="7">
         <v>9500.0</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="5">
+      <c r="A50" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="6">
         <v>2.0</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="7">
         <v>9500.0</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="5">
+      <c r="A51" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="6">
         <v>2.0</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="7">
         <v>9500.0</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="5">
+      <c r="A52" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="6">
         <v>3.0</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="7">
         <v>9500.0</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="5">
+      <c r="A53" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="6">
         <v>3.0</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="7">
         <v>21000.0</v>
       </c>
+      <c r="E53" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="5">
+      <c r="A54" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="6">
         <v>3.0</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="7">
         <v>21000.0</v>
       </c>
+      <c r="E54" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" s="5">
+      <c r="A55" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="6">
         <v>3.0</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="7">
         <v>21000.0</v>
       </c>
+      <c r="E55" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" s="5">
+      <c r="A56" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="6">
         <v>3.0</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="7">
         <v>21000.0</v>
       </c>
+      <c r="E56" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57" s="5">
+      <c r="A57" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="6">
         <v>2.0</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="7">
         <v>21000.0</v>
       </c>
+      <c r="E57" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" s="5">
+      <c r="A58" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="6">
         <v>2.0</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="7">
         <v>21000.0</v>
       </c>
+      <c r="E58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="5">
+      <c r="A59" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" s="6">
         <v>0.0</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="7">
         <v>6000.0</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="7">
         <v>14000.0</v>
       </c>
+      <c r="E59" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B60" s="5">
+      <c r="A60" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="6">
         <v>0.0</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="7">
         <v>10000.0</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="7">
         <v>21500.0</v>
       </c>
+      <c r="E60" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" s="5">
+      <c r="A61" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="6">
         <v>1.0</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="7">
         <v>10000.0</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="7">
         <v>21500.0</v>
       </c>
+      <c r="E61" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" s="5">
+      <c r="A62" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="6">
         <v>1.0</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="7">
         <v>10000.0</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="7">
         <v>21500.0</v>
       </c>
+      <c r="E62" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" s="5">
+      <c r="A63" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="6">
         <v>1.0</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="7">
         <v>10000.0</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="7">
         <v>21500.0</v>
       </c>
+      <c r="E63" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64" s="5">
+      <c r="A64" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="6">
         <v>4.0</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="6">
         <v>13500.0</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="7">
         <v>24500.0</v>
       </c>
+      <c r="E64" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="5">
+      <c r="A65" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="6">
         <v>3.0</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="6">
         <v>13500.0</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="7">
         <v>24500.0</v>
       </c>
+      <c r="E65" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="5">
+      <c r="A66" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="6">
         <v>3.0</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="6">
         <v>13500.0</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="7">
         <v>24500.0</v>
       </c>
+      <c r="E66" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B67" s="5">
+      <c r="A67" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="6">
         <v>0.0</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="6">
         <v>13500.0</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="7">
         <v>24500.0</v>
       </c>
+      <c r="E67" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C68" s="6">
+      <c r="A68" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="7">
         <v>16000.0</v>
       </c>
+      <c r="E68" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69" s="6">
+      <c r="A69" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="7">
         <v>16000.0</v>
       </c>
+      <c r="E69" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C70" s="6">
+      <c r="A70" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="7">
         <v>16000.0</v>
       </c>
+      <c r="E70" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C71" s="6">
+      <c r="A71" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="7">
         <v>16000.0</v>
       </c>
+      <c r="E71" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C72" s="6">
+      <c r="A72" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="7">
         <v>16000.0</v>
       </c>
+      <c r="E72" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C73" s="6">
+      <c r="A73" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="7">
         <v>16000.0</v>
       </c>
+      <c r="E73" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C74" s="6">
+      <c r="A74" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="7">
         <v>16000.0</v>
       </c>
+      <c r="E74" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" s="6">
+      <c r="A75" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="7">
         <v>16000.0</v>
       </c>
+      <c r="E75" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C76" s="6">
+      <c r="A76" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="7">
         <v>16000.0</v>
       </c>
+      <c r="E76" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C77" s="6">
+      <c r="A77" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="7">
         <v>16000.0</v>
       </c>
+      <c r="E77" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C78" s="6">
+      <c r="A78" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="7">
         <v>16000.0</v>
       </c>
+      <c r="E78" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C79" s="6">
+      <c r="A79" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="7">
         <v>16000.0</v>
       </c>
+      <c r="E79" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C80" s="6">
+      <c r="A80" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" s="7">
         <v>5500.0</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="7">
         <v>14000.0</v>
       </c>
+      <c r="E80" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C81" s="6">
+      <c r="A81" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="7">
         <v>4000.0</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="7">
         <v>10000.0</v>
       </c>
+      <c r="E81" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" s="6">
+      <c r="A82" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" s="7">
         <v>4000.0</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="7">
         <v>10000.0</v>
       </c>
+      <c r="E82" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C83" s="6">
+      <c r="A83" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83" s="7">
         <v>4000.0</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="7">
         <v>10000.0</v>
       </c>
+      <c r="E83" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C84" s="6">
+      <c r="A84" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84" s="7">
         <v>4000.0</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="7">
         <v>10000.0</v>
       </c>
+      <c r="E84" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C85" s="6">
+      <c r="A85" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="7">
         <v>4000.0</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="7">
         <v>10000.0</v>
       </c>
+      <c r="E85" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C86" s="6">
+      <c r="A86" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C86" s="7">
         <v>4000.0</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="7">
         <v>10000.0</v>
       </c>
+      <c r="E86" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C87" s="6">
+      <c r="A87" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" s="7">
         <v>4000.0</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="7">
         <v>10000.0</v>
       </c>
+      <c r="E87" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C88" s="6">
+      <c r="A88" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C88" s="7">
         <v>4000.0</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D88" s="7">
         <v>10000.0</v>
       </c>
+      <c r="E88" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C89" s="6">
+      <c r="A89" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" s="7">
         <v>6000.0</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89" s="7">
         <v>15000.0</v>
       </c>
+      <c r="E89" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C90" s="6">
+      <c r="A90" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" s="7">
         <v>6000.0</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="7">
         <v>15000.0</v>
       </c>
+      <c r="E90" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C91" s="6">
+      <c r="A91" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" s="7">
         <v>6000.0</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D91" s="7">
         <v>15000.0</v>
       </c>
+      <c r="E91" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C92" s="6">
+      <c r="A92" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" s="7">
         <v>6000.0</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D92" s="7">
         <v>15000.0</v>
       </c>
+      <c r="E92" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C93" s="6">
+      <c r="A93" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" s="7">
         <v>6000.0</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D93" s="7">
         <v>15000.0</v>
       </c>
+      <c r="E93" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C94" s="6">
+      <c r="A94" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C94" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D94" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E94" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C95" s="6">
+      <c r="A95" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E95" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C96" s="6">
+      <c r="A96" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C96" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D96" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E96" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C97" s="6">
+      <c r="A97" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C97" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D97" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E97" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C98" s="6">
+      <c r="A98" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C98" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E98" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C99" s="6">
+      <c r="A99" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C99" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D99" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E99" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C100" s="6">
+      <c r="A100" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D100" s="6">
+      <c r="D100" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E100" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C101" s="6">
+      <c r="A101" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C101" s="7">
         <v>5000.0</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D101" s="7">
         <v>12000.0</v>
       </c>
+      <c r="E101" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C102" s="7">
+        <v>5000.0</v>
+      </c>
+      <c r="D102" s="7">
+        <v>12000.0</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C103" s="7">
+        <v>5000.0</v>
+      </c>
+      <c r="D103" s="7">
+        <v>12000.0</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C104" s="7">
+        <v>5000.0</v>
+      </c>
+      <c r="D104" s="7">
+        <v>12000.0</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C105" s="7">
+        <v>5000.0</v>
+      </c>
+      <c r="D105" s="7">
+        <v>12000.0</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C106" s="7">
+        <v>5000.0</v>
+      </c>
+      <c r="D106" s="7">
+        <v>12000.0</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C107" s="7">
+        <v>5000.0</v>
+      </c>
+      <c r="D107" s="7">
+        <v>12000.0</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C108" s="7">
+        <v>5000.0</v>
+      </c>
+      <c r="D108" s="7">
+        <v>12000.0</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C109" s="7">
+        <v>8000.0</v>
+      </c>
+      <c r="D109" s="7">
+        <v>16000.0</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C110" s="7">
+        <v>8000.0</v>
+      </c>
+      <c r="D110" s="7">
+        <v>16000.0</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C111" s="7">
+        <v>8000.0</v>
+      </c>
+      <c r="D111" s="7">
+        <v>16000.0</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C112" s="7">
+        <v>5000.0</v>
+      </c>
+      <c r="D112" s="7">
+        <v>11000.0</v>
+      </c>
+      <c r="E112" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C102" s="6">
+      <c r="F112" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C113" s="7">
         <v>5000.0</v>
       </c>
-      <c r="D102" s="6">
-        <v>12000.0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C103" s="6">
+      <c r="D113" s="7">
+        <v>11000.0</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C114" s="7">
         <v>5000.0</v>
       </c>
-      <c r="D103" s="6">
-        <v>12000.0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C104" s="6">
+      <c r="D114" s="7">
+        <v>11000.0</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C115" s="7">
         <v>5000.0</v>
       </c>
-      <c r="D104" s="6">
-        <v>12000.0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C105" s="6">
-        <v>5000.0</v>
-      </c>
-      <c r="D105" s="6">
-        <v>12000.0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C106" s="6">
-        <v>5000.0</v>
-      </c>
-      <c r="D106" s="6">
-        <v>12000.0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C107" s="6">
-        <v>5000.0</v>
-      </c>
-      <c r="D107" s="6">
-        <v>12000.0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C108" s="6">
-        <v>5000.0</v>
-      </c>
-      <c r="D108" s="6">
-        <v>12000.0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C109" s="6">
-        <v>8000.0</v>
-      </c>
-      <c r="D109" s="6">
-        <v>16000.0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C110" s="6">
-        <v>8000.0</v>
-      </c>
-      <c r="D110" s="6">
-        <v>16000.0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C111" s="6">
-        <v>8000.0</v>
-      </c>
-      <c r="D111" s="6">
-        <v>16000.0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C112" s="6">
-        <v>5000.0</v>
-      </c>
-      <c r="D112" s="6">
+      <c r="D115" s="7">
         <v>11000.0</v>
       </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C113" s="6">
-        <v>5000.0</v>
-      </c>
-      <c r="D113" s="6">
-        <v>11000.0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C114" s="6">
-        <v>5000.0</v>
-      </c>
-      <c r="D114" s="6">
-        <v>11000.0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C115" s="6">
-        <v>5000.0</v>
-      </c>
-      <c r="D115" s="6">
-        <v>11000.0</v>
+      <c r="E115" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C116" s="6">
+      <c r="A116" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C116" s="7">
         <v>2500.0</v>
       </c>
-      <c r="D116" s="6">
+      <c r="D116" s="7">
         <v>7000.0</v>
       </c>
+      <c r="E116" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C117" s="6">
+      <c r="A117" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C117" s="7">
         <v>2500.0</v>
       </c>
-      <c r="D117" s="6">
+      <c r="D117" s="7">
         <v>7000.0</v>
       </c>
+      <c r="E117" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C118" s="6">
+      <c r="A118" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C118" s="7">
         <v>2500.0</v>
       </c>
-      <c r="D118" s="6">
+      <c r="D118" s="7">
         <v>7000.0</v>
       </c>
+      <c r="E118" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C119" s="6">
+      <c r="A119" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C119" s="7">
         <v>2500.0</v>
       </c>
-      <c r="D119" s="6">
+      <c r="D119" s="7">
         <v>7000.0</v>
       </c>
+      <c r="E119" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C120" s="6">
+      <c r="A120" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C120" s="7">
         <v>10000.0</v>
       </c>
-      <c r="D120" s="6">
+      <c r="D120" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E120" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C121" s="6">
+      <c r="A121" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C121" s="7">
         <v>10000.0</v>
       </c>
-      <c r="D121" s="6">
+      <c r="D121" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E121" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C122" s="6">
+      <c r="A122" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C122" s="7">
         <v>10000.0</v>
       </c>
-      <c r="D122" s="6">
+      <c r="D122" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E122" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C123" s="6">
+      <c r="A123" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C123" s="7">
         <v>10000.0</v>
       </c>
-      <c r="D123" s="6">
+      <c r="D123" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E123" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C124" s="6">
+      <c r="A124" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C124" s="7">
         <v>10000.0</v>
       </c>
-      <c r="D124" s="6">
+      <c r="D124" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E124" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C125" s="6">
+      <c r="A125" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C125" s="7">
         <v>10000.0</v>
       </c>
-      <c r="D125" s="6">
+      <c r="D125" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E125" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C126" s="6">
+      <c r="A126" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C126" s="7">
         <v>10000.0</v>
       </c>
-      <c r="D126" s="6">
+      <c r="D126" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E126" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C127" s="6">
+      <c r="A127" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C127" s="7">
         <v>10000.0</v>
       </c>
-      <c r="D127" s="6">
+      <c r="D127" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E127" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C128" s="6">
+      <c r="A128" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C128" s="7">
         <v>10000.0</v>
       </c>
-      <c r="D128" s="6">
+      <c r="D128" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E128" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C129" s="6">
+      <c r="A129" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C129" s="7">
         <v>10000.0</v>
       </c>
-      <c r="D129" s="6">
+      <c r="D129" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E129" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C130" s="6">
+      <c r="A130" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C130" s="7">
         <v>10000.0</v>
       </c>
-      <c r="D130" s="6">
+      <c r="D130" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E130" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="131">
-      <c r="A131" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C131" s="6">
+      <c r="A131" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C131" s="7">
         <v>10000.0</v>
       </c>
-      <c r="D131" s="6">
+      <c r="D131" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E131" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C132" s="6">
+      <c r="A132" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C132" s="7">
         <v>10000.0</v>
       </c>
-      <c r="D132" s="6">
+      <c r="D132" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E132" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="133">
-      <c r="A133" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C133" s="6">
+      <c r="A133" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C133" s="7">
         <v>10000.0</v>
       </c>
-      <c r="D133" s="6">
+      <c r="D133" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E133" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C134" s="6">
+      <c r="A134" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C134" s="7">
         <v>10000.0</v>
       </c>
-      <c r="D134" s="6">
+      <c r="D134" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E134" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="135">
-      <c r="A135" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C135" s="6">
+      <c r="A135" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C135" s="7">
         <v>10000.0</v>
       </c>
-      <c r="D135" s="6">
+      <c r="D135" s="7">
         <v>20000.0</v>
       </c>
+      <c r="E135" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C136" s="6">
+      <c r="A136" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C136" s="7">
         <v>10000.0</v>
       </c>
-      <c r="D136" s="6">
+      <c r="D136" s="7">
         <v>20000.0</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2789,361 +4106,607 @@
     <col customWidth="1" min="1" max="1" width="32.75"/>
     <col customWidth="1" min="3" max="3" width="15.5"/>
     <col customWidth="1" min="4" max="4" width="15.88"/>
+    <col customWidth="1" min="5" max="5" width="19.75"/>
+    <col customWidth="1" min="6" max="6" width="22.88"/>
+    <col customWidth="1" min="7" max="7" width="18.38"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="A1" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="6">
         <v>16.0</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="11">
         <v>5000.0</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>12000.0</v>
       </c>
+      <c r="E2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="6">
         <v>8.0</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>10500.0</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>22000.0</v>
       </c>
+      <c r="E3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="6">
         <v>7.0</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>10500.0</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>22000.0</v>
       </c>
+      <c r="E4" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="A5" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="6">
         <v>7.0</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>10500.0</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>22000.0</v>
       </c>
+      <c r="E5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="A6" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="6">
         <v>4.0</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>10500.0</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>22000.0</v>
       </c>
+      <c r="E6" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="A7" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="6">
         <v>5.0</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>10500.0</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>22000.0</v>
       </c>
+      <c r="E7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="A8" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="6">
         <v>3.0</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>10500.0</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>22000.0</v>
       </c>
+      <c r="E8" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="A9" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="7">
         <v>4000.0</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="7">
         <v>13000.0</v>
       </c>
+      <c r="E9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="A10" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="6">
         <v>4.0</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>4000.0</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7">
         <v>13000.0</v>
       </c>
+      <c r="E10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="A11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="6">
         <v>2.0</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7">
         <v>9500.0</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="7">
         <v>21000.0</v>
       </c>
+      <c r="E11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="5">
+      <c r="A12" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="6">
         <v>12.0</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="7">
         <v>5500.0</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="7">
         <v>12000.0</v>
       </c>
+      <c r="E12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="A13" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="7">
         <v>16000.0</v>
       </c>
+      <c r="E13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="A14" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="7">
         <v>6000.0</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="7">
         <v>13000.0</v>
       </c>
+      <c r="E14" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="A15" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="7">
         <v>16000.0</v>
       </c>
+      <c r="E15" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="A16" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="7">
         <v>7000.0</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="7">
         <v>14000.0</v>
       </c>
+      <c r="E16" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B17" s="4">
+      <c r="A17" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="5">
         <v>1.0</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="7">
         <v>7500.0</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="7">
         <v>14500.0</v>
       </c>
+      <c r="E17" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B18" s="4">
+      <c r="A18" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="5">
         <v>2.0</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="7">
         <v>3000.0</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="7">
         <v>6500.0</v>
       </c>
+      <c r="E18" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19" s="4">
+      <c r="A19" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="5">
         <v>2.0</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="7">
         <v>3000.0</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="7">
         <v>6500.0</v>
       </c>
+      <c r="E19" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="6">
+      <c r="A20" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="7">
         <v>6000.0</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="7">
         <v>13000.0</v>
       </c>
+      <c r="E20" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21" s="6">
+      <c r="A21" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="7">
         <v>9000.0</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="7">
         <v>21000.0</v>
       </c>
+      <c r="E21" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="6">
+      <c r="A22" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="7">
         <v>4900.0</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="7">
         <v>13000.0</v>
       </c>
+      <c r="E22" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="6">
+      <c r="A23" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="7">
         <v>6000.0</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="7">
         <v>11000.0</v>
       </c>
+      <c r="E23" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C24" s="6">
+      <c r="A24" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="7">
         <v>5500.0</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="7">
         <v>12000.0</v>
       </c>
+      <c r="E24" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C25" s="6">
+      <c r="A25" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" s="7">
         <v>5500.0</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="7">
         <v>12000.0</v>
       </c>
+      <c r="E25" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C26" s="6">
+      <c r="A26" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" s="7">
         <v>5500.0</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="7">
         <v>12000.0</v>
       </c>
+      <c r="E26" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C27" s="6">
+      <c r="A27" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="7">
         <v>7000.0</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="7">
         <v>13000.0</v>
       </c>
+      <c r="E27" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="s">
-        <v>171</v>
+      <c r="A28" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4"/>
+      <c r="A29" s="5"/>
     </row>
     <row r="46">
-      <c r="A46" s="11"/>
+      <c r="A46" s="13"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3161,284 +4724,495 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="33.5"/>
+    <col customWidth="1" min="5" max="5" width="19.38"/>
+    <col customWidth="1" min="6" max="6" width="20.88"/>
+    <col customWidth="1" min="7" max="7" width="19.0"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>175</v>
+      <c r="A1" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5">
         <v>1.0</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="11">
         <v>1900.0</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>7000.0</v>
       </c>
+      <c r="E2" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="A3" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="7">
         <v>2900.0</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>7000.0</v>
       </c>
+      <c r="E3" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="A4" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="7">
         <v>3900.0</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>8000.0</v>
       </c>
+      <c r="E4" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="A5" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="7">
         <v>4900.0</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>9000.0</v>
       </c>
+      <c r="E5" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="A6" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="7">
         <v>5900.0</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>10000.0</v>
       </c>
+      <c r="E6" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="A7" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="7">
         <v>6500.0</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>12000.0</v>
       </c>
+      <c r="E7" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="A8" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="7">
         <v>1500.0</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>4000.0</v>
       </c>
+      <c r="E8" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="A9" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="7">
         <v>2500.0</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="7">
         <v>5000.0</v>
       </c>
+      <c r="E9" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="A10" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="7">
         <v>3000.0</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7">
         <v>6000.0</v>
       </c>
+      <c r="E10" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="A11" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="7">
         <v>4000.0</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="7">
         <v>8000.0</v>
       </c>
+      <c r="E11" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="A12" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="7">
         <v>5000.0</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="7">
         <v>10000.0</v>
       </c>
+      <c r="E12" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="A13" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="5">
         <v>2.0</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="7">
         <v>18000.0</v>
       </c>
+      <c r="E13" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B14" s="4">
+      <c r="A14" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="5">
         <v>1.0</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="7">
         <v>18000.0</v>
       </c>
+      <c r="E14" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B15" s="4">
+      <c r="A15" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="5">
         <v>1.0</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="7">
         <v>18000.0</v>
       </c>
+      <c r="E15" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B16" s="4">
+      <c r="A16" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="5">
         <v>1.0</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="7">
         <v>8000.0</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="7">
         <v>18000.0</v>
       </c>
+      <c r="E16" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B17" s="4">
+      <c r="A17" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="5">
         <v>1.0</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="7">
         <v>2500.0</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="7">
         <v>7000.0</v>
       </c>
+      <c r="E17" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="6">
+      <c r="A18" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="7">
         <v>3500.0</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="7">
         <v>7500.0</v>
       </c>
+      <c r="E18" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C19" s="6">
+      <c r="A19" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" s="7">
         <v>3000.0</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="7">
         <v>10000.0</v>
       </c>
+      <c r="E19" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C20" s="6">
+      <c r="A20" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="7">
         <v>2500.0</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="7">
         <v>8000.0</v>
       </c>
+      <c r="E20" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="7">
+        <v>2500.0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>7000.0</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C21" s="6">
-        <v>2500.0</v>
-      </c>
-      <c r="D21" s="6">
-        <v>7000.0</v>
+      <c r="F21" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" s="7">
+        <v>4000.0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>8000.0</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C22" s="6">
+      <c r="G22" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="7">
         <v>4000.0</v>
       </c>
-      <c r="D22" s="6">
-        <v>8000.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C23" s="6">
-        <v>4000.0</v>
-      </c>
-      <c r="D23" s="6">
+      <c r="D23" s="7">
         <v>10000.0</v>
       </c>
+      <c r="E23" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="4"/>
+      <c r="A24" s="5"/>
+      <c r="F24" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3458,163 +5232,292 @@
     <col customWidth="1" min="1" max="1" width="36.0"/>
     <col customWidth="1" min="2" max="2" width="18.5"/>
     <col customWidth="1" min="3" max="3" width="15.88"/>
+    <col customWidth="1" min="5" max="5" width="20.5"/>
+    <col customWidth="1" min="6" max="6" width="20.75"/>
+    <col customWidth="1" min="7" max="7" width="18.13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>175</v>
+      <c r="A1" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="A2" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="7">
         <v>6500.0</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>13000.0</v>
       </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="A3" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="7">
         <v>6500.0</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>13000.0</v>
       </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="A4" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="7">
         <v>6500.0</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>13000.0</v>
       </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="A5" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="7">
         <v>9000.0</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>18000.0</v>
       </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="A6" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="7">
         <v>3000.0</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>7000.0</v>
       </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="A7" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="7">
         <v>3000.0</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>7000.0</v>
       </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="A8" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="7">
         <v>3000.0</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>7000.0</v>
       </c>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="A9" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="7">
         <v>3000.0</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="7">
         <v>7000.0</v>
       </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="A10" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="7">
         <v>3000.0</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7">
         <v>7000.0</v>
       </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="A11" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="7">
         <v>3000.0</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="7">
         <v>7000.0</v>
       </c>
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="A12" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="7">
         <v>3000.0</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="7">
         <v>7000.0</v>
       </c>
+      <c r="E12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="A13" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="7">
         <v>3000.0</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="7">
         <v>7000.0</v>
       </c>
+      <c r="E13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="A14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="7">
         <v>3000.0</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="7">
         <v>7000.0</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3633,103 +5536,157 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="34.0"/>
+    <col customWidth="1" min="5" max="5" width="20.5"/>
+    <col customWidth="1" min="6" max="6" width="23.75"/>
+    <col customWidth="1" min="7" max="7" width="21.13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>175</v>
+      <c r="A1" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="5">
         <v>10.0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>6900.0</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>15000.0</v>
       </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="5">
         <v>4.0</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>6900.0</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>15000.0</v>
       </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="A4" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="7">
         <v>9000.0</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>18000.0</v>
       </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="A5" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="11">
         <v>7000.0</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>15000.0</v>
       </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="A6" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="7">
         <v>3000.0</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>6500.0</v>
       </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="A7" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="7">
         <v>3000.0</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>6500.0</v>
       </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="A8" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" s="7">
         <v>3500.0</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>7000.0</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
